--- a/data_year/zb/批发和零售业/限额以上零售业企业基本情况和商品购销存情况/按国民经济行业分限额以上零售业企业商品购进额.xlsx
+++ b/data_year/zb/批发和零售业/限额以上零售业企业基本情况和商品购销存情况/按国民经济行业分限额以上零售业企业商品购进额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,1323 +543,841 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1049.7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>67.5</v>
+      </c>
       <c r="D2" t="n">
-        <v>199.3922</v>
+        <v>2281.1</v>
       </c>
       <c r="E2" t="n">
-        <v>235.76</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>588.8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4258.9</v>
+      </c>
       <c r="G2" t="n">
-        <v>15.6654</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>1138.3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1017</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3067.8</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1023.7</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5911.7</v>
+      </c>
       <c r="L2" t="n">
-        <v>212.9944</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+        <v>23648.2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>17245</v>
+      </c>
       <c r="N2" t="n">
-        <v>2515.5409</v>
+        <v>6706.1</v>
       </c>
       <c r="O2" t="n">
-        <v>103.6002</v>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+        <v>1493.7</v>
+      </c>
+      <c r="P2" t="n">
+        <v>13133.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2186.7</v>
+      </c>
       <c r="R2" t="n">
-        <v>47.965</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+        <v>757.2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5673.1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>335.7</v>
+      </c>
+      <c r="U2" t="n">
+        <v>281.5</v>
+      </c>
       <c r="V2" t="n">
-        <v>607.8299</v>
+        <v>870.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1396.0943</v>
+      </c>
+      <c r="C3" t="n">
+        <v>76.95</v>
+      </c>
       <c r="D3" t="n">
-        <v>247.5459</v>
+        <v>2558.0924</v>
       </c>
       <c r="E3" t="n">
-        <v>249.4322</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
+        <v>738.8807</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5496.1395</v>
+      </c>
       <c r="G3" t="n">
-        <v>16.1544</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>1554.0843</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1499.8739</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3747.418</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1389.4768</v>
+      </c>
+      <c r="K3" t="n">
+        <v>8674.945</v>
+      </c>
       <c r="L3" t="n">
-        <v>411.4142</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>29859.2089</v>
+      </c>
+      <c r="M3" t="n">
+        <v>20538.6948</v>
+      </c>
       <c r="N3" t="n">
-        <v>2896.8696</v>
+        <v>8393.9049</v>
       </c>
       <c r="O3" t="n">
-        <v>103.3895</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+        <v>2094.8013</v>
+      </c>
+      <c r="P3" t="n">
+        <v>15973.5136</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2419.0955</v>
+      </c>
       <c r="R3" t="n">
-        <v>101.7733</v>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+        <v>1138.0317</v>
+      </c>
+      <c r="S3" t="n">
+        <v>6715.6469</v>
+      </c>
+      <c r="T3" t="n">
+        <v>473.3956</v>
+      </c>
+      <c r="U3" t="n">
+        <v>489.3141</v>
+      </c>
       <c r="V3" t="n">
-        <v>416.6455</v>
+        <v>1651.2857</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1799.92562</v>
+      </c>
+      <c r="C4" t="n">
+        <v>152.33198</v>
+      </c>
       <c r="D4" t="n">
-        <v>424.93998</v>
+        <v>3532.14191</v>
       </c>
       <c r="E4" t="n">
-        <v>278.95692</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+        <v>805.4032099999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6190.91651</v>
+      </c>
       <c r="G4" t="n">
-        <v>16.51384</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1930.31998</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2462.70822</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3068.63694</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1804.78874</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9761.53513</v>
+      </c>
       <c r="L4" t="n">
-        <v>859.66628</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>34736.9683</v>
+      </c>
+      <c r="M4" t="n">
+        <v>24249.19104</v>
+      </c>
       <c r="N4" t="n">
-        <v>3262.35902</v>
+        <v>10034.48438</v>
       </c>
       <c r="O4" t="n">
-        <v>98.83938999999999</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+        <v>2683.53654</v>
+      </c>
+      <c r="P4" t="n">
+        <v>18510.63314</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3314.93691</v>
+      </c>
       <c r="R4" t="n">
-        <v>141.29453</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+        <v>1524.13834</v>
+      </c>
+      <c r="S4" t="n">
+        <v>7619.83113</v>
+      </c>
+      <c r="T4" t="n">
+        <v>683.23259</v>
+      </c>
+      <c r="U4" t="n">
+        <v>925.9</v>
+      </c>
       <c r="V4" t="n">
-        <v>391.42719</v>
+        <v>2180.81118</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>159.65204</v>
+        <v>2435.16884</v>
       </c>
       <c r="C5" t="n">
-        <v>5.75171</v>
+        <v>174.28997</v>
       </c>
       <c r="D5" t="n">
-        <v>403.04529</v>
+        <v>4238.51257</v>
       </c>
       <c r="E5" t="n">
-        <v>281.73446</v>
+        <v>878.17312</v>
       </c>
       <c r="F5" t="n">
-        <v>976.2274</v>
+        <v>7173.96478</v>
       </c>
       <c r="G5" t="n">
-        <v>386.1826</v>
+        <v>2689.15023</v>
       </c>
       <c r="H5" t="n">
-        <v>85.24863000000001</v>
+        <v>3093.57863</v>
       </c>
       <c r="I5" t="n">
-        <v>732.79756</v>
+        <v>3049.83132</v>
       </c>
       <c r="J5" t="n">
-        <v>101.73852</v>
+        <v>1984.40257</v>
       </c>
       <c r="K5" t="n">
-        <v>482.01042</v>
+        <v>10794.41431</v>
       </c>
       <c r="L5" t="n">
-        <v>2014.12146</v>
+        <v>40588.23122</v>
       </c>
       <c r="M5" t="n">
-        <v>1401.45561</v>
+        <v>28968.5178</v>
       </c>
       <c r="N5" t="n">
-        <v>2544.38367</v>
+        <v>10671.1326</v>
       </c>
       <c r="O5" t="n">
-        <v>218.25846</v>
+        <v>3074.93923</v>
       </c>
       <c r="P5" t="n">
-        <v>4211.69372</v>
+        <v>20366.50322</v>
       </c>
       <c r="Q5" t="n">
-        <v>385.50507</v>
+        <v>3954.86738</v>
       </c>
       <c r="R5" t="n">
-        <v>139.02139</v>
+        <v>1862.48656</v>
       </c>
       <c r="S5" t="n">
-        <v>1517.21615</v>
+        <v>8680.54127</v>
       </c>
       <c r="T5" t="n">
-        <v>91.62155</v>
+        <v>781.5667099999999</v>
       </c>
       <c r="U5" t="n">
-        <v>1.0732</v>
+        <v>1480.44813</v>
       </c>
       <c r="V5" t="n">
-        <v>233.04203</v>
+        <v>2354.56544</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>233.37771</v>
+        <v>2570.71711</v>
       </c>
       <c r="C6" t="n">
-        <v>14.90751</v>
+        <v>97.6217</v>
       </c>
       <c r="D6" t="n">
-        <v>704.32229</v>
+        <v>4942.08874</v>
       </c>
       <c r="E6" t="n">
-        <v>378.23661</v>
+        <v>974.31534</v>
       </c>
       <c r="F6" t="n">
-        <v>1833.42769</v>
+        <v>7927.83827</v>
       </c>
       <c r="G6" t="n">
-        <v>518.39763</v>
+        <v>2960.82441</v>
       </c>
       <c r="H6" t="n">
-        <v>212.94277</v>
+        <v>4690.90356</v>
       </c>
       <c r="I6" t="n">
-        <v>1252.35123</v>
+        <v>3179.67939</v>
       </c>
       <c r="J6" t="n">
-        <v>200.5091</v>
+        <v>2111.96126</v>
       </c>
       <c r="K6" t="n">
-        <v>2084.39533</v>
+        <v>12146.36632</v>
       </c>
       <c r="L6" t="n">
-        <v>5755.72043</v>
+        <v>45768.04632</v>
       </c>
       <c r="M6" t="n">
-        <v>3521.38716</v>
+        <v>32608.20313</v>
       </c>
       <c r="N6" t="n">
-        <v>3008.91334</v>
+        <v>11324.26374</v>
       </c>
       <c r="O6" t="n">
-        <v>350.98794</v>
+        <v>3464.94547</v>
       </c>
       <c r="P6" t="n">
-        <v>5959.66077</v>
+        <v>21327.54744</v>
       </c>
       <c r="Q6" t="n">
-        <v>655.08879</v>
+        <v>4610.70132</v>
       </c>
       <c r="R6" t="n">
-        <v>298.20591</v>
+        <v>2172.31749</v>
       </c>
       <c r="S6" t="n">
-        <v>2614.93884</v>
+        <v>8905.689329999999</v>
       </c>
       <c r="T6" t="n">
-        <v>229.80723</v>
+        <v>816.37276</v>
       </c>
       <c r="U6" t="n">
-        <v>7.83205</v>
+        <v>3041.76786</v>
       </c>
       <c r="V6" t="n">
-        <v>311.45202</v>
+        <v>2858.88506</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>296.14017</v>
+        <v>2886.0742</v>
       </c>
       <c r="C7" t="n">
-        <v>30.29892</v>
+        <v>128.9593</v>
       </c>
       <c r="D7" t="n">
-        <v>732.84272</v>
+        <v>5421.9728</v>
       </c>
       <c r="E7" t="n">
-        <v>444.7032</v>
+        <v>1040.4998</v>
       </c>
       <c r="F7" t="n">
-        <v>2228.39735</v>
+        <v>9104.192999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>646.5317</v>
+        <v>2742.3915</v>
       </c>
       <c r="H7" t="n">
-        <v>294.8129</v>
+        <v>4642.9223</v>
       </c>
       <c r="I7" t="n">
-        <v>1498.39526</v>
+        <v>3318.8931</v>
       </c>
       <c r="J7" t="n">
-        <v>281.17063</v>
+        <v>2228.5859</v>
       </c>
       <c r="K7" t="n">
-        <v>2658.18721</v>
+        <v>11037.6775</v>
       </c>
       <c r="L7" t="n">
-        <v>7599.782</v>
+        <v>44988.0417</v>
       </c>
       <c r="M7" t="n">
-        <v>4767.53378</v>
+        <v>32990.7822</v>
       </c>
       <c r="N7" t="n">
-        <v>3567.55301</v>
+        <v>11530.0002</v>
       </c>
       <c r="O7" t="n">
-        <v>458.22014</v>
+        <v>3748.9353</v>
       </c>
       <c r="P7" t="n">
-        <v>7130.06609</v>
+        <v>21842.4127</v>
       </c>
       <c r="Q7" t="n">
-        <v>672.60981</v>
+        <v>5173.5138</v>
       </c>
       <c r="R7" t="n">
-        <v>406.0578</v>
+        <v>2111.8725</v>
       </c>
       <c r="S7" t="n">
-        <v>3267.44499</v>
+        <v>9162.991</v>
       </c>
       <c r="T7" t="n">
-        <v>262.75298</v>
+        <v>1738.6365</v>
       </c>
       <c r="U7" t="n">
-        <v>12.55527</v>
+        <v>3132.5351</v>
       </c>
       <c r="V7" t="n">
-        <v>372.3342</v>
+        <v>3155.7797</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>403.01218</v>
+        <v>3368.9104</v>
       </c>
       <c r="C8" t="n">
-        <v>49.03968</v>
+        <v>153.3333</v>
       </c>
       <c r="D8" t="n">
-        <v>841.8795699999999</v>
+        <v>6315.6257</v>
       </c>
       <c r="E8" t="n">
-        <v>394.29179</v>
+        <v>1051.8806</v>
       </c>
       <c r="F8" t="n">
-        <v>2610.36994</v>
+        <v>10133.1898</v>
       </c>
       <c r="G8" t="n">
-        <v>691.22506</v>
+        <v>2933.5923</v>
       </c>
       <c r="H8" t="n">
-        <v>343.45483</v>
+        <v>7040.2438</v>
       </c>
       <c r="I8" t="n">
-        <v>1764.79092</v>
+        <v>4298.9086</v>
       </c>
       <c r="J8" t="n">
-        <v>368.10387</v>
+        <v>2468.6624</v>
       </c>
       <c r="K8" t="n">
-        <v>2853.34368</v>
+        <v>10611.1433</v>
       </c>
       <c r="L8" t="n">
-        <v>9418.22147</v>
+        <v>49335.3393</v>
       </c>
       <c r="M8" t="n">
-        <v>6343.51197</v>
+        <v>37682.1786</v>
       </c>
       <c r="N8" t="n">
-        <v>4199.10316</v>
+        <v>11302.1693</v>
       </c>
       <c r="O8" t="n">
-        <v>584.99024</v>
+        <v>4046.633</v>
       </c>
       <c r="P8" t="n">
-        <v>8718.914769999999</v>
+        <v>22193.6855</v>
       </c>
       <c r="Q8" t="n">
-        <v>794.34202</v>
+        <v>6047.4221</v>
       </c>
       <c r="R8" t="n">
-        <v>507.17618</v>
+        <v>2592.3413</v>
       </c>
       <c r="S8" t="n">
-        <v>4142.53997</v>
+        <v>9717.8752</v>
       </c>
       <c r="T8" t="n">
-        <v>263.11279</v>
+        <v>1098.1766</v>
       </c>
       <c r="U8" t="n">
-        <v>16.80428</v>
+        <v>5604.0744</v>
       </c>
       <c r="V8" t="n">
-        <v>468.00457</v>
+        <v>3523.28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>526.7939</v>
+        <v>2765.221</v>
       </c>
       <c r="C9" t="n">
-        <v>33.1747</v>
+        <v>181.507</v>
       </c>
       <c r="D9" t="n">
-        <v>1302.6229</v>
+        <v>4901.809</v>
       </c>
       <c r="E9" t="n">
-        <v>475.1895</v>
+        <v>1013.709</v>
       </c>
       <c r="F9" t="n">
-        <v>3276.6613</v>
+        <v>8894.057000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>904.9999</v>
+        <v>2803.874</v>
       </c>
       <c r="H9" t="n">
-        <v>528.8591</v>
+        <v>7819.659</v>
       </c>
       <c r="I9" t="n">
-        <v>2214.3347</v>
+        <v>3554.564</v>
       </c>
       <c r="J9" t="n">
-        <v>660.7818</v>
+        <v>2446.767</v>
       </c>
       <c r="K9" t="n">
-        <v>4680.1777</v>
+        <v>10709.57</v>
       </c>
       <c r="L9" t="n">
-        <v>13820.2085</v>
+        <v>50133.225</v>
       </c>
       <c r="M9" t="n">
-        <v>8839.379499999999</v>
+        <v>38518.132</v>
       </c>
       <c r="N9" t="n">
-        <v>4908.6885</v>
+        <v>9656.061</v>
       </c>
       <c r="O9" t="n">
-        <v>1058.4977</v>
+        <v>4001.318</v>
       </c>
       <c r="P9" t="n">
-        <v>9534.374400000001</v>
+        <v>19457.587</v>
       </c>
       <c r="Q9" t="n">
-        <v>1244.8181</v>
+        <v>4685.737</v>
       </c>
       <c r="R9" t="n">
-        <v>656.1974</v>
+        <v>2360.532</v>
       </c>
       <c r="S9" t="n">
-        <v>4182.8081</v>
+        <v>8866.012000000001</v>
       </c>
       <c r="T9" t="n">
-        <v>339.9132</v>
+        <v>1007.295</v>
       </c>
       <c r="U9" t="n">
-        <v>68.4559</v>
+        <v>6529.609</v>
       </c>
       <c r="V9" t="n">
-        <v>528.864</v>
+        <v>3345.67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>709.09186</v>
+        <v>2047.8224</v>
       </c>
       <c r="C10" t="n">
-        <v>47.98896</v>
+        <v>185.3165</v>
       </c>
       <c r="D10" t="n">
-        <v>1573.47736</v>
+        <v>4018.1866</v>
       </c>
       <c r="E10" t="n">
-        <v>523.69741</v>
+        <v>1070.715</v>
       </c>
       <c r="F10" t="n">
-        <v>3269.18509</v>
+        <v>8464.1351</v>
       </c>
       <c r="G10" t="n">
-        <v>1011.45814</v>
+        <v>2618.0781</v>
       </c>
       <c r="H10" t="n">
-        <v>571.76717</v>
+        <v>9565.8194</v>
       </c>
       <c r="I10" t="n">
-        <v>2247.06449</v>
+        <v>3418.5584</v>
       </c>
       <c r="J10" t="n">
-        <v>744.94161</v>
+        <v>2323.912</v>
       </c>
       <c r="K10" t="n">
-        <v>4326.17361</v>
+        <v>11369.1277</v>
       </c>
       <c r="L10" t="n">
-        <v>16611.78899</v>
+        <v>48665.512</v>
       </c>
       <c r="M10" t="n">
-        <v>11895.94835</v>
+        <v>35802.1654</v>
       </c>
       <c r="N10" t="n">
-        <v>5430.51327</v>
+        <v>8915.481599999999</v>
       </c>
       <c r="O10" t="n">
-        <v>1162.23792</v>
+        <v>4025.6471</v>
       </c>
       <c r="P10" t="n">
-        <v>10673.62993</v>
+        <v>17939.1195</v>
       </c>
       <c r="Q10" t="n">
-        <v>1499.57531</v>
+        <v>3631.1607</v>
       </c>
       <c r="R10" t="n">
-        <v>628.11476</v>
+        <v>2237.0102</v>
       </c>
       <c r="S10" t="n">
-        <v>4786.50836</v>
+        <v>8285.696400000001</v>
       </c>
       <c r="T10" t="n">
-        <v>308.86618</v>
+        <v>1105.7064</v>
       </c>
       <c r="U10" t="n">
-        <v>111.00488</v>
+        <v>8645.1265</v>
       </c>
       <c r="V10" t="n">
-        <v>611.59337</v>
+        <v>3095.5036</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1049.7</v>
+        <v>1903.6877</v>
       </c>
       <c r="C11" t="n">
-        <v>67.5</v>
+        <v>189.2632</v>
       </c>
       <c r="D11" t="n">
-        <v>2281.1</v>
+        <v>3713.047</v>
       </c>
       <c r="E11" t="n">
-        <v>588.8</v>
+        <v>1079.4806</v>
       </c>
       <c r="F11" t="n">
-        <v>4258.9</v>
+        <v>7850.9928</v>
       </c>
       <c r="G11" t="n">
-        <v>1138.3</v>
+        <v>2725.1228</v>
       </c>
       <c r="H11" t="n">
-        <v>1017</v>
+        <v>14815.694</v>
       </c>
       <c r="I11" t="n">
-        <v>3067.8</v>
+        <v>4056.5329</v>
       </c>
       <c r="J11" t="n">
-        <v>1023.7</v>
+        <v>2586.2853</v>
       </c>
       <c r="K11" t="n">
-        <v>5911.7</v>
+        <v>11696.0599</v>
       </c>
       <c r="L11" t="n">
-        <v>23648.2</v>
+        <v>50367.9579</v>
       </c>
       <c r="M11" t="n">
-        <v>17245</v>
+        <v>36935.8004</v>
       </c>
       <c r="N11" t="n">
-        <v>6706.1</v>
+        <v>8669.010399999999</v>
       </c>
       <c r="O11" t="n">
-        <v>1493.7</v>
+        <v>4466.513</v>
       </c>
       <c r="P11" t="n">
-        <v>13133.5</v>
+        <v>18528.433</v>
       </c>
       <c r="Q11" t="n">
-        <v>2186.7</v>
+        <v>3255.3806</v>
       </c>
       <c r="R11" t="n">
-        <v>757.2</v>
+        <v>1092.3868</v>
       </c>
       <c r="S11" t="n">
-        <v>5673.1</v>
+        <v>8961.0535</v>
       </c>
       <c r="T11" t="n">
-        <v>335.7</v>
+        <v>1175.7486</v>
       </c>
       <c r="U11" t="n">
-        <v>281.5</v>
+        <v>13799.1019</v>
       </c>
       <c r="V11" t="n">
-        <v>870.5</v>
+        <v>3225.1061</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1396.0943</v>
+        <v>1583.3574</v>
       </c>
       <c r="C12" t="n">
-        <v>76.95</v>
+        <v>152.2445</v>
       </c>
       <c r="D12" t="n">
-        <v>2558.0924</v>
+        <v>4107.6592</v>
       </c>
       <c r="E12" t="n">
-        <v>738.8807</v>
+        <v>1109.8171</v>
       </c>
       <c r="F12" t="n">
-        <v>5496.1395</v>
+        <v>7653.5852</v>
       </c>
       <c r="G12" t="n">
-        <v>1554.0843</v>
+        <v>2678.1218</v>
       </c>
       <c r="H12" t="n">
-        <v>1499.8739</v>
+        <v>17859.3601</v>
       </c>
       <c r="I12" t="n">
-        <v>3747.418</v>
+        <v>3637.5346</v>
       </c>
       <c r="J12" t="n">
-        <v>1389.4768</v>
+        <v>2473.3001</v>
       </c>
       <c r="K12" t="n">
-        <v>8674.945</v>
+        <v>10214.0853</v>
       </c>
       <c r="L12" t="n">
-        <v>29859.2089</v>
+        <v>51039.5791</v>
       </c>
       <c r="M12" t="n">
-        <v>20538.6948</v>
+        <v>39409.0847</v>
       </c>
       <c r="N12" t="n">
-        <v>8393.9049</v>
+        <v>7998.526</v>
       </c>
       <c r="O12" t="n">
-        <v>2094.8013</v>
+        <v>4242.5166</v>
       </c>
       <c r="P12" t="n">
-        <v>15973.5136</v>
+        <v>18351.3942</v>
       </c>
       <c r="Q12" t="n">
-        <v>2419.0955</v>
+        <v>3775.1237</v>
       </c>
       <c r="R12" t="n">
-        <v>1138.0317</v>
+        <v>1397.0589</v>
       </c>
       <c r="S12" t="n">
-        <v>6715.6469</v>
+        <v>9491.619000000001</v>
       </c>
       <c r="T12" t="n">
-        <v>473.3956</v>
+        <v>1227.7932</v>
       </c>
       <c r="U12" t="n">
-        <v>489.3141</v>
+        <v>16817.6112</v>
       </c>
       <c r="V12" t="n">
-        <v>1651.2857</v>
+        <v>3553.0722</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1799.92562</v>
+        <v>1788.2032</v>
       </c>
       <c r="C13" t="n">
-        <v>152.33198</v>
+        <v>145.0932</v>
       </c>
       <c r="D13" t="n">
-        <v>3532.14191</v>
+        <v>4185.9273</v>
       </c>
       <c r="E13" t="n">
-        <v>805.4032099999999</v>
+        <v>1240.6191</v>
       </c>
       <c r="F13" t="n">
-        <v>6190.91651</v>
+        <v>8218.5352</v>
       </c>
       <c r="G13" t="n">
-        <v>1930.31998</v>
+        <v>3124.1516</v>
       </c>
       <c r="H13" t="n">
-        <v>2462.70822</v>
+        <v>21786.2375</v>
       </c>
       <c r="I13" t="n">
-        <v>3068.63694</v>
+        <v>3391.1388</v>
       </c>
       <c r="J13" t="n">
-        <v>1804.78874</v>
+        <v>2844.3018</v>
       </c>
       <c r="K13" t="n">
-        <v>9761.53513</v>
+        <v>13930.4298</v>
       </c>
       <c r="L13" t="n">
-        <v>34736.9683</v>
+        <v>58119.2371</v>
       </c>
       <c r="M13" t="n">
-        <v>24249.19104</v>
+        <v>42608.1144</v>
       </c>
       <c r="N13" t="n">
-        <v>10034.48438</v>
+        <v>8983.7029</v>
       </c>
       <c r="O13" t="n">
-        <v>2683.53654</v>
+        <v>5062.8284</v>
       </c>
       <c r="P13" t="n">
-        <v>18510.63314</v>
+        <v>19657.8963</v>
       </c>
       <c r="Q13" t="n">
-        <v>3314.93691</v>
+        <v>3833.9387</v>
       </c>
       <c r="R13" t="n">
-        <v>1524.13834</v>
+        <v>1923.72</v>
       </c>
       <c r="S13" t="n">
-        <v>7619.83113</v>
+        <v>9703.8912</v>
       </c>
       <c r="T13" t="n">
-        <v>683.23259</v>
+        <v>1554.8017</v>
       </c>
       <c r="U13" t="n">
-        <v>925.9</v>
+        <v>20783.3921</v>
       </c>
       <c r="V13" t="n">
-        <v>2180.81118</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2435.16884</v>
-      </c>
-      <c r="C14" t="n">
-        <v>174.28997</v>
-      </c>
-      <c r="D14" t="n">
-        <v>4238.51257</v>
-      </c>
-      <c r="E14" t="n">
-        <v>878.17312</v>
-      </c>
-      <c r="F14" t="n">
-        <v>7173.96478</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2689.15023</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3093.57863</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3049.83132</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1984.40257</v>
-      </c>
-      <c r="K14" t="n">
-        <v>10794.41431</v>
-      </c>
-      <c r="L14" t="n">
-        <v>40588.23122</v>
-      </c>
-      <c r="M14" t="n">
-        <v>28968.5178</v>
-      </c>
-      <c r="N14" t="n">
-        <v>10671.1326</v>
-      </c>
-      <c r="O14" t="n">
-        <v>3074.93923</v>
-      </c>
-      <c r="P14" t="n">
-        <v>20366.50322</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3954.86738</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1862.48656</v>
-      </c>
-      <c r="S14" t="n">
-        <v>8680.54127</v>
-      </c>
-      <c r="T14" t="n">
-        <v>781.5667099999999</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1480.44813</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2354.56544</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2570.71711</v>
-      </c>
-      <c r="C15" t="n">
-        <v>97.6217</v>
-      </c>
-      <c r="D15" t="n">
-        <v>4942.08874</v>
-      </c>
-      <c r="E15" t="n">
-        <v>974.31534</v>
-      </c>
-      <c r="F15" t="n">
-        <v>7927.83827</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2960.82441</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4690.90356</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3179.67939</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2111.96126</v>
-      </c>
-      <c r="K15" t="n">
-        <v>12146.36632</v>
-      </c>
-      <c r="L15" t="n">
-        <v>45768.04632</v>
-      </c>
-      <c r="M15" t="n">
-        <v>32608.20313</v>
-      </c>
-      <c r="N15" t="n">
-        <v>11324.26374</v>
-      </c>
-      <c r="O15" t="n">
-        <v>3464.94547</v>
-      </c>
-      <c r="P15" t="n">
-        <v>21327.54744</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>4610.70132</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2172.31749</v>
-      </c>
-      <c r="S15" t="n">
-        <v>8905.689329999999</v>
-      </c>
-      <c r="T15" t="n">
-        <v>816.37276</v>
-      </c>
-      <c r="U15" t="n">
-        <v>3041.76786</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2858.88506</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2886.0742</v>
-      </c>
-      <c r="C16" t="n">
-        <v>128.9593</v>
-      </c>
-      <c r="D16" t="n">
-        <v>5421.9728</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1040.4998</v>
-      </c>
-      <c r="F16" t="n">
-        <v>9104.192999999999</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2742.3915</v>
-      </c>
-      <c r="H16" t="n">
-        <v>4642.9223</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3318.8931</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2228.5859</v>
-      </c>
-      <c r="K16" t="n">
-        <v>11037.6775</v>
-      </c>
-      <c r="L16" t="n">
-        <v>44988.0417</v>
-      </c>
-      <c r="M16" t="n">
-        <v>32990.7822</v>
-      </c>
-      <c r="N16" t="n">
-        <v>11530.0002</v>
-      </c>
-      <c r="O16" t="n">
-        <v>3748.9353</v>
-      </c>
-      <c r="P16" t="n">
-        <v>21842.4127</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>5173.5138</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2111.8725</v>
-      </c>
-      <c r="S16" t="n">
-        <v>9162.991</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1738.6365</v>
-      </c>
-      <c r="U16" t="n">
-        <v>3132.5351</v>
-      </c>
-      <c r="V16" t="n">
-        <v>3155.7797</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>3368.9104</v>
-      </c>
-      <c r="C17" t="n">
-        <v>153.3333</v>
-      </c>
-      <c r="D17" t="n">
-        <v>6315.6257</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1051.8806</v>
-      </c>
-      <c r="F17" t="n">
-        <v>10133.1898</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2933.5923</v>
-      </c>
-      <c r="H17" t="n">
-        <v>7040.2438</v>
-      </c>
-      <c r="I17" t="n">
-        <v>4298.9086</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2468.6624</v>
-      </c>
-      <c r="K17" t="n">
-        <v>10611.1433</v>
-      </c>
-      <c r="L17" t="n">
-        <v>49335.3393</v>
-      </c>
-      <c r="M17" t="n">
-        <v>37682.1786</v>
-      </c>
-      <c r="N17" t="n">
-        <v>11302.1693</v>
-      </c>
-      <c r="O17" t="n">
-        <v>4046.633</v>
-      </c>
-      <c r="P17" t="n">
-        <v>22193.6855</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>6047.4221</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2592.3413</v>
-      </c>
-      <c r="S17" t="n">
-        <v>9717.8752</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1098.1766</v>
-      </c>
-      <c r="U17" t="n">
-        <v>5604.0744</v>
-      </c>
-      <c r="V17" t="n">
-        <v>3523.28</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2765.221</v>
-      </c>
-      <c r="C18" t="n">
-        <v>181.507</v>
-      </c>
-      <c r="D18" t="n">
-        <v>4901.809</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1013.709</v>
-      </c>
-      <c r="F18" t="n">
-        <v>8894.057000000001</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2803.874</v>
-      </c>
-      <c r="H18" t="n">
-        <v>7819.659</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3554.564</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2446.767</v>
-      </c>
-      <c r="K18" t="n">
-        <v>10709.57</v>
-      </c>
-      <c r="L18" t="n">
-        <v>50133.225</v>
-      </c>
-      <c r="M18" t="n">
-        <v>38518.132</v>
-      </c>
-      <c r="N18" t="n">
-        <v>9656.061</v>
-      </c>
-      <c r="O18" t="n">
-        <v>4001.318</v>
-      </c>
-      <c r="P18" t="n">
-        <v>19457.587</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>4685.737</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2360.532</v>
-      </c>
-      <c r="S18" t="n">
-        <v>8866.012000000001</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1007.295</v>
-      </c>
-      <c r="U18" t="n">
-        <v>6529.609</v>
-      </c>
-      <c r="V18" t="n">
-        <v>3345.67</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2047.8224</v>
-      </c>
-      <c r="C19" t="n">
-        <v>185.3165</v>
-      </c>
-      <c r="D19" t="n">
-        <v>4018.1866</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1070.715</v>
-      </c>
-      <c r="F19" t="n">
-        <v>8464.1351</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2618.0781</v>
-      </c>
-      <c r="H19" t="n">
-        <v>9565.8194</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3418.5584</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2323.912</v>
-      </c>
-      <c r="K19" t="n">
-        <v>11369.1277</v>
-      </c>
-      <c r="L19" t="n">
-        <v>48665.512</v>
-      </c>
-      <c r="M19" t="n">
-        <v>35802.1654</v>
-      </c>
-      <c r="N19" t="n">
-        <v>8915.481599999999</v>
-      </c>
-      <c r="O19" t="n">
-        <v>4025.6471</v>
-      </c>
-      <c r="P19" t="n">
-        <v>17939.1195</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>3631.1607</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2237.0102</v>
-      </c>
-      <c r="S19" t="n">
-        <v>8285.696400000001</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1105.7064</v>
-      </c>
-      <c r="U19" t="n">
-        <v>8645.1265</v>
-      </c>
-      <c r="V19" t="n">
-        <v>3095.5036</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1903.6877</v>
-      </c>
-      <c r="C20" t="n">
-        <v>189.2632</v>
-      </c>
-      <c r="D20" t="n">
-        <v>3713.047</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1079.4806</v>
-      </c>
-      <c r="F20" t="n">
-        <v>7850.9928</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2725.1228</v>
-      </c>
-      <c r="H20" t="n">
-        <v>14815.694</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4056.5329</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2586.2853</v>
-      </c>
-      <c r="K20" t="n">
-        <v>11696.0599</v>
-      </c>
-      <c r="L20" t="n">
-        <v>50367.9579</v>
-      </c>
-      <c r="M20" t="n">
-        <v>36935.8004</v>
-      </c>
-      <c r="N20" t="n">
-        <v>8669.010399999999</v>
-      </c>
-      <c r="O20" t="n">
-        <v>4466.513</v>
-      </c>
-      <c r="P20" t="n">
-        <v>18528.433</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3255.3806</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1092.3868</v>
-      </c>
-      <c r="S20" t="n">
-        <v>8961.0535</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1175.7486</v>
-      </c>
-      <c r="U20" t="n">
-        <v>13799.1019</v>
-      </c>
-      <c r="V20" t="n">
-        <v>3225.1061</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1583.3574</v>
-      </c>
-      <c r="C21" t="n">
-        <v>152.2445</v>
-      </c>
-      <c r="D21" t="n">
-        <v>4107.6592</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1109.8171</v>
-      </c>
-      <c r="F21" t="n">
-        <v>7653.5852</v>
-      </c>
-      <c r="G21" t="n">
-        <v>2678.1218</v>
-      </c>
-      <c r="H21" t="n">
-        <v>17859.3601</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3637.5346</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2473.3001</v>
-      </c>
-      <c r="K21" t="n">
-        <v>10214.0853</v>
-      </c>
-      <c r="L21" t="n">
-        <v>51039.5791</v>
-      </c>
-      <c r="M21" t="n">
-        <v>39409.0847</v>
-      </c>
-      <c r="N21" t="n">
-        <v>7998.526</v>
-      </c>
-      <c r="O21" t="n">
-        <v>4242.5166</v>
-      </c>
-      <c r="P21" t="n">
-        <v>18351.3942</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3775.1237</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1397.0589</v>
-      </c>
-      <c r="S21" t="n">
-        <v>9491.619000000001</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1227.7932</v>
-      </c>
-      <c r="U21" t="n">
-        <v>16817.6112</v>
-      </c>
-      <c r="V21" t="n">
-        <v>3553.0722</v>
+        <v>4173.5566</v>
       </c>
     </row>
   </sheetData>
